--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77129.33914292137</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77129.33914292137</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960724414.166101</v>
+        <v>37559812.18490887</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11754.23534075075</v>
+        <v>1109528.41438328</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21153.46358347516</v>
+        <v>1811350.664503298</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30544.29657255506</v>
+        <v>2513172.914623316</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40137.65039976025</v>
+        <v>3214291.741092545</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49731.00127664768</v>
+        <v>3915410.567561774</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59324.35510385285</v>
+        <v>4616529.394031002</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68917.70893105803</v>
+        <v>5317648.220500228</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78511.06275826323</v>
+        <v>6018767.046969453</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88104.41658546841</v>
+        <v>6719885.873438677</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97697.77041267361</v>
+        <v>7421004.699907902</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107291.1242398788</v>
+        <v>8122123.526377126</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116884.478067084</v>
+        <v>8823242.352846356</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126477.8318942892</v>
+        <v>9524361.179315591</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136071.1857214943</v>
+        <v>10225480.00578483</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145664.5395486996</v>
+        <v>10926598.83225406</v>
       </c>
     </row>
   </sheetData>
